--- a/doc/301 Release Plan Chart.xlsx
+++ b/doc/301 Release Plan Chart.xlsx
@@ -355,7 +355,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +372,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE06666"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -501,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -599,12 +605,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE06666"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -915,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection sqref="A1:BU74"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BP69" sqref="BP69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1144,7 +1161,7 @@
       <c r="BT4" s="4"/>
       <c r="BU4" s="4"/>
     </row>
-    <row r="5" spans="1:73" ht="70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73" ht="71" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
@@ -4055,7 +4072,7 @@
       <c r="BT48" s="37"/>
       <c r="BU48" s="37"/>
     </row>
-    <row r="49" spans="1:73" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:73" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>5.0999999999999996</v>
       </c>
@@ -4106,7 +4123,7 @@
       <c r="BT49" s="4"/>
       <c r="BU49" s="4"/>
     </row>
-    <row r="50" spans="1:73" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:73" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -4133,20 +4150,20 @@
       <c r="AV50" s="4"/>
       <c r="AW50" s="4"/>
       <c r="AX50" s="4"/>
-      <c r="AY50" s="26"/>
+      <c r="AY50" s="51"/>
       <c r="AZ50" s="4"/>
       <c r="BA50" s="4"/>
       <c r="BB50" s="4"/>
       <c r="BC50" s="4"/>
       <c r="BD50" s="4"/>
       <c r="BE50" s="4"/>
-      <c r="BF50" s="26"/>
+      <c r="BF50" s="51"/>
       <c r="BG50" s="4"/>
       <c r="BH50" s="4"/>
       <c r="BI50" s="4"/>
       <c r="BJ50" s="4"/>
       <c r="BK50" s="4"/>
-      <c r="BL50" s="26"/>
+      <c r="BL50" s="51"/>
       <c r="BM50" s="4"/>
       <c r="BN50" s="4"/>
       <c r="BO50" s="4"/>
@@ -4208,7 +4225,7 @@
       <c r="BT51" s="4"/>
       <c r="BU51" s="4"/>
     </row>
-    <row r="52" spans="1:73" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:73" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>5.2</v>
       </c>
@@ -4259,7 +4276,7 @@
       <c r="BT52" s="4"/>
       <c r="BU52" s="4"/>
     </row>
-    <row r="53" spans="1:73" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:73" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -4287,23 +4304,23 @@
       <c r="AW53" s="4"/>
       <c r="AX53" s="26"/>
       <c r="AY53" s="26"/>
-      <c r="AZ53" s="26"/>
-      <c r="BA53" s="26"/>
-      <c r="BB53" s="26"/>
-      <c r="BC53" s="26"/>
-      <c r="BD53" s="26"/>
-      <c r="BE53" s="26"/>
-      <c r="BF53" s="26"/>
-      <c r="BG53" s="26"/>
-      <c r="BH53" s="26"/>
-      <c r="BI53" s="26"/>
-      <c r="BJ53" s="26"/>
-      <c r="BK53" s="4"/>
-      <c r="BL53" s="4"/>
-      <c r="BM53" s="4"/>
-      <c r="BN53" s="4"/>
-      <c r="BO53" s="4"/>
-      <c r="BP53" s="4"/>
+      <c r="AZ53" s="51"/>
+      <c r="BA53" s="51"/>
+      <c r="BB53" s="51"/>
+      <c r="BC53" s="51"/>
+      <c r="BD53" s="51"/>
+      <c r="BE53" s="51"/>
+      <c r="BF53" s="51"/>
+      <c r="BG53" s="51"/>
+      <c r="BH53" s="51"/>
+      <c r="BI53" s="51"/>
+      <c r="BJ53" s="51"/>
+      <c r="BK53" s="53"/>
+      <c r="BL53" s="53"/>
+      <c r="BM53" s="53"/>
+      <c r="BN53" s="53"/>
+      <c r="BO53" s="53"/>
+      <c r="BP53" s="53"/>
       <c r="BQ53" s="4"/>
       <c r="BR53" s="4"/>
       <c r="BS53" s="4"/>
@@ -4361,7 +4378,7 @@
       <c r="BT54" s="4"/>
       <c r="BU54" s="4"/>
     </row>
-    <row r="55" spans="1:73" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:73" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>5.3</v>
       </c>
@@ -4412,7 +4429,7 @@
       <c r="BT55" s="4"/>
       <c r="BU55" s="4"/>
     </row>
-    <row r="56" spans="1:73" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:73" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>67</v>
       </c>
@@ -4485,13 +4502,13 @@
       <c r="BN56" s="33"/>
       <c r="BO56" s="32"/>
       <c r="BP56" s="32"/>
-      <c r="BQ56" s="32"/>
-      <c r="BR56" s="32"/>
+      <c r="BQ56" s="54"/>
+      <c r="BR56" s="54"/>
       <c r="BS56" s="32"/>
       <c r="BT56" s="32"/>
       <c r="BU56" s="32"/>
     </row>
-    <row r="57" spans="1:73" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:73" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>5.4</v>
       </c>
@@ -4542,7 +4559,7 @@
       <c r="BT57" s="4"/>
       <c r="BU57" s="4"/>
     </row>
-    <row r="58" spans="1:73" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:73" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
@@ -4613,15 +4630,15 @@
       <c r="BL58" s="38"/>
       <c r="BM58" s="38"/>
       <c r="BN58" s="38"/>
-      <c r="BO58" s="38"/>
-      <c r="BP58" s="38"/>
-      <c r="BQ58" s="32"/>
-      <c r="BR58" s="32"/>
+      <c r="BO58" s="59"/>
+      <c r="BP58" s="59"/>
+      <c r="BQ58" s="54"/>
+      <c r="BR58" s="54"/>
       <c r="BS58" s="32"/>
       <c r="BT58" s="32"/>
       <c r="BU58" s="32"/>
     </row>
-    <row r="59" spans="1:73" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:73" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>5.5</v>
       </c>
@@ -4672,7 +4689,7 @@
       <c r="BT59" s="4"/>
       <c r="BU59" s="4"/>
     </row>
-    <row r="60" spans="1:73" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:73" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
@@ -4744,14 +4761,14 @@
       <c r="BM60" s="32"/>
       <c r="BN60" s="32"/>
       <c r="BO60" s="32"/>
-      <c r="BP60" s="32"/>
-      <c r="BQ60" s="32"/>
-      <c r="BR60" s="32"/>
+      <c r="BP60" s="54"/>
+      <c r="BQ60" s="54"/>
+      <c r="BR60" s="54"/>
       <c r="BS60" s="32"/>
       <c r="BT60" s="32"/>
       <c r="BU60" s="32"/>
     </row>
-    <row r="61" spans="1:73" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:73" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>5.6</v>
       </c>
@@ -4802,7 +4819,7 @@
       <c r="BT61" s="4"/>
       <c r="BU61" s="4"/>
     </row>
-    <row r="62" spans="1:73" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:73" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -4874,14 +4891,14 @@
       <c r="BM62" s="38"/>
       <c r="BN62" s="38"/>
       <c r="BO62" s="32"/>
-      <c r="BP62" s="32"/>
-      <c r="BQ62" s="32"/>
-      <c r="BR62" s="32"/>
+      <c r="BP62" s="54"/>
+      <c r="BQ62" s="54"/>
+      <c r="BR62" s="54"/>
       <c r="BS62" s="32"/>
       <c r="BT62" s="32"/>
       <c r="BU62" s="32"/>
     </row>
-    <row r="63" spans="1:73" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:73" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>5.7</v>
       </c>
@@ -4932,7 +4949,7 @@
       <c r="BT63" s="4"/>
       <c r="BU63" s="4"/>
     </row>
-    <row r="64" spans="1:73" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:73" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
@@ -5000,9 +5017,9 @@
       <c r="BI64" s="32"/>
       <c r="BJ64" s="32"/>
       <c r="BK64" s="33"/>
-      <c r="BL64" s="33"/>
-      <c r="BM64" s="33"/>
-      <c r="BN64" s="32"/>
+      <c r="BL64" s="55"/>
+      <c r="BM64" s="55"/>
+      <c r="BN64" s="54"/>
       <c r="BO64" s="32"/>
       <c r="BP64" s="32"/>
       <c r="BQ64" s="32"/>
@@ -5011,7 +5028,7 @@
       <c r="BT64" s="32"/>
       <c r="BU64" s="32"/>
     </row>
-    <row r="65" spans="1:73" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:73" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>76</v>
       </c>
@@ -5084,13 +5101,13 @@
       <c r="BN65" s="33"/>
       <c r="BO65" s="33"/>
       <c r="BP65" s="33"/>
-      <c r="BQ65" s="32"/>
-      <c r="BR65" s="32"/>
+      <c r="BQ65" s="54"/>
+      <c r="BR65" s="54"/>
       <c r="BS65" s="32"/>
       <c r="BT65" s="32"/>
       <c r="BU65" s="32"/>
     </row>
-    <row r="66" spans="1:73" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:73" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>5.8</v>
       </c>
@@ -5141,7 +5158,7 @@
       <c r="BT66" s="4"/>
       <c r="BU66" s="4"/>
     </row>
-    <row r="67" spans="1:73" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:73" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>78</v>
       </c>
@@ -5184,10 +5201,10 @@
       <c r="BL67" s="28"/>
       <c r="BM67" s="28"/>
       <c r="BN67" s="28"/>
-      <c r="BO67" s="28"/>
-      <c r="BP67" s="4"/>
-      <c r="BQ67" s="4"/>
-      <c r="BR67" s="4"/>
+      <c r="BO67" s="62"/>
+      <c r="BP67" s="53"/>
+      <c r="BQ67" s="53"/>
+      <c r="BR67" s="60"/>
       <c r="BS67" s="4"/>
       <c r="BT67" s="4"/>
       <c r="BU67" s="4"/>
@@ -5241,7 +5258,7 @@
       <c r="BT68" s="4"/>
       <c r="BU68" s="4"/>
     </row>
-    <row r="69" spans="1:73" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:73" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="17">
         <v>5.9</v>
       </c>
@@ -5292,7 +5309,7 @@
       <c r="BT69" s="4"/>
       <c r="BU69" s="4"/>
     </row>
-    <row r="70" spans="1:73" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:73" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="39" t="s">
         <v>81</v>
       </c>
@@ -5340,10 +5357,10 @@
       <c r="BQ70" s="4"/>
       <c r="BR70" s="4"/>
       <c r="BS70" s="4"/>
-      <c r="BT70" s="4"/>
+      <c r="BT70" s="61"/>
       <c r="BU70" s="4"/>
     </row>
-    <row r="71" spans="1:73" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:73" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="39">
         <v>5.0999999999999996</v>
       </c>
@@ -5394,7 +5411,7 @@
       <c r="BT71" s="4"/>
       <c r="BU71" s="4"/>
     </row>
-    <row r="72" spans="1:73" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:73" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
@@ -5439,8 +5456,8 @@
       <c r="BN72" s="26"/>
       <c r="BO72" s="4"/>
       <c r="BP72" s="4"/>
-      <c r="BQ72" s="4"/>
-      <c r="BR72" s="4"/>
+      <c r="BQ72" s="53"/>
+      <c r="BR72" s="53"/>
       <c r="BS72" s="4"/>
       <c r="BT72" s="4"/>
       <c r="BU72" s="4"/>
